--- a/Schematic and Layout/BOM and tests.xlsx
+++ b/Schematic and Layout/BOM and tests.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>Screw in headers</t>
   </si>
@@ -114,12 +114,6 @@
     <t>Heat sink</t>
   </si>
   <si>
-    <t>SUM</t>
-  </si>
-  <si>
-    <t>SQRT</t>
-  </si>
-  <si>
     <t>PNP transistor</t>
   </si>
   <si>
@@ -139,6 +133,27 @@
   </si>
   <si>
     <t>OLD---------------------------</t>
+  </si>
+  <si>
+    <t>RX</t>
+  </si>
+  <si>
+    <t>N channel MOSFET</t>
+  </si>
+  <si>
+    <t>p CHANNEL MOSFET</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/infineon-technologies/IRF9540NSTRLPBF/IRF9540NSTRLPBFTR-ND/1928217</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/toshiba-semiconductor-and-storage/T2N7002AK,LM/T2N7002AKLMCT-ND/5298039</t>
+  </si>
+  <si>
+    <t>Button</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/e-switch/KS-01Q-02/EG4792-ND/2116271</t>
   </si>
 </sst>
 </file>
@@ -510,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,78 +599,63 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>35</v>
       </c>
-      <c r="B13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E17">
-        <v>6.35</v>
-      </c>
-      <c r="F17">
-        <f>E17*2</f>
-        <v>12.7</v>
-      </c>
-      <c r="G17">
-        <f>F17*F17</f>
-        <v>161.29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E18">
-        <v>2.65</v>
-      </c>
-      <c r="F18">
-        <f>E18*2</f>
-        <v>5.3</v>
-      </c>
-      <c r="G18">
-        <f>F18*F18</f>
-        <v>28.09</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E19" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19">
-        <f>G17+G18</f>
-        <v>189.38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20">
-        <f>SQRT(G19)</f>
-        <v>13.761540611428648</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -663,12 +663,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -676,7 +676,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>12</v>
       </c>
